--- a/仕様書超仮.xlsx
+++ b/仕様書超仮.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\23CI0538\3DGame01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{756AED9B-B344-432F-8B43-13440DA4D334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3614FCA6-6680-432F-86F7-F0C1DE6FA66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="750" windowWidth="12555" windowHeight="11295" xr2:uid="{7A5AC77C-C45B-4BE3-B607-C16C19C86818}"/>
+    <workbookView xWindow="1575" yWindow="-15" windowWidth="12045" windowHeight="10155" xr2:uid="{7A5AC77C-C45B-4BE3-B607-C16C19C86818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Unity 2022.2.9</t>
     <phoneticPr fontId="1"/>
@@ -132,6 +132,185 @@
   </si>
   <si>
     <t>1.ゲームエンジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.オブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾が一定数当たると爆発エフェクトを残し消滅</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発エフェクトは再生が終わったら消滅</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.敵</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤに迫る、プレイヤに当たったらプレイヤがkill</t>
+    <rPh sb="5" eb="6">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.クリア条件</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵やオブジェクトを壊すと出現</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大目的</t>
+    <rPh sb="0" eb="3">
+      <t>ダイモクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中目的</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一気に破壊できるアイテムを得る</t>
+    <rPh sb="0" eb="2">
+      <t>イッキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小目的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのオブジェクト、敵を破壊したらクリア</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのオブジェクト、敵を破壊する</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト、敵を破壊する</t>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:強力弾 広い範囲のオブジェクトなどを破壊できる</t>
+    <rPh sb="2" eb="4">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2:靴　足が速くなる</t>
+    <rPh sb="2" eb="3">
+      <t>クツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハヤ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -499,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077AEBE1-C506-421C-A9BE-9E5E5DD01CA3}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -599,6 +778,91 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:B12"/>
